--- a/Governeye/bin/config/Core.xlsx
+++ b/Governeye/bin/config/Core.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="10800" tabRatio="680" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2805" windowWidth="20730" windowHeight="10740" tabRatio="680" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Suite1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="188">
   <si>
     <t>TCID</t>
   </si>
@@ -558,13 +558,43 @@
   </si>
   <si>
     <t>Click on logoutbutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying text post </t>
+  </si>
+  <si>
+    <t>verifyTextOnpage</t>
+  </si>
+  <si>
+    <t>postverifytext</t>
+  </si>
+  <si>
+    <t>TS29</t>
+  </si>
+  <si>
+    <t>TS30</t>
+  </si>
+  <si>
+    <t>TS31</t>
+  </si>
+  <si>
+    <t>TS32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying link post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying audio post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifying video post </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +761,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -765,6 +796,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,20 +972,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -975,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -986,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>132</v>
       </c>
@@ -997,7 +1029,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -1008,7 +1040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -1016,10 +1048,10 @@
         <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -1027,7 +1059,7 @@
         <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1036,21 +1068,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1087,7 +1119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1104,7 +1136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1124,14 +1156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
@@ -1140,7 +1172,7 @@
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -1160,7 +1192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1180,14 +1212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
@@ -1196,7 +1228,7 @@
     <col min="6" max="6" width="31" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1236,14 +1268,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
@@ -1252,7 +1284,7 @@
     <col min="6" max="6" width="31" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1272,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1286,7 +1318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1300,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1331,7 +1363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1365,7 +1397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1382,7 +1414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1396,7 +1428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1413,7 +1445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1427,7 +1459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1444,7 +1476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1461,7 +1493,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1478,7 +1510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -1495,7 +1527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -1509,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -1526,7 +1558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1540,7 +1572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -1557,7 +1589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1571,7 +1603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -1588,7 +1620,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1605,7 +1637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1622,7 +1654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -1639,7 +1671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1656,7 +1688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1670,7 +1702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1687,7 +1719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1707,12 +1739,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
@@ -1721,7 +1753,7 @@
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1758,7 +1790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1775,7 +1807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1795,14 +1827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
@@ -1811,7 +1843,7 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1879,7 +1911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1896,7 +1928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +1942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1944,20 +1976,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="51" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +1997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1973,7 +2005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1981,7 +2013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1989,7 +2021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +2037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -2013,7 +2045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -2021,7 +2053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -2029,7 +2061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +2069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2045,7 +2077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>105</v>
       </c>
@@ -2053,7 +2085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>96</v>
       </c>
@@ -2061,7 +2093,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -2069,7 +2101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>106</v>
       </c>
@@ -2077,7 +2109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
@@ -2085,43 +2117,43 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
     </row>
@@ -2132,14 +2164,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -2149,7 +2181,7 @@
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2169,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2186,7 +2218,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2203,7 +2235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2223,14 +2255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -2238,7 +2270,7 @@
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2272,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2286,7 +2318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2300,7 +2332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2349,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2334,7 +2366,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2357,14 +2389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
@@ -2373,7 +2405,7 @@
     <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2393,7 +2425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2410,7 +2442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2427,7 +2459,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2441,7 +2473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2458,7 +2490,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2472,7 +2504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2486,7 +2518,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2500,7 +2532,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2517,7 +2549,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2531,7 +2563,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2545,7 +2577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2562,7 +2594,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2576,7 +2608,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2590,7 +2622,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2604,7 +2636,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -2621,7 +2653,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -2638,7 +2670,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -2655,7 +2687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2669,7 +2701,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2683,7 +2715,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -2697,7 +2729,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -2714,7 +2746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -2731,7 +2763,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -2748,7 +2780,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -2760,6 +2792,74 @@
       </c>
       <c r="D25" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Governeye/bin/config/Core.xlsx
+++ b/Governeye/bin/config/Core.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2805" windowWidth="20730" windowHeight="10740" tabRatio="680" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="3105" windowWidth="20730" windowHeight="10440" tabRatio="680" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Suite1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="Post" sheetId="15" r:id="rId9"/>
     <sheet name="Moderator" sheetId="16" r:id="rId10"/>
     <sheet name="Logout" sheetId="17" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="248">
   <si>
     <t>TCID</t>
   </si>
@@ -77,9 +79,6 @@
     <t>Wait10K</t>
   </si>
   <si>
-    <t>Click on Sign in button</t>
-  </si>
-  <si>
     <t>typekeys</t>
   </si>
   <si>
@@ -137,9 +136,6 @@
     <t>Select the options from provided list</t>
   </si>
   <si>
-    <t>Wait 10 seconds</t>
-  </si>
-  <si>
     <t>Wait 5 seconds</t>
   </si>
   <si>
@@ -164,12 +160,6 @@
     <t>TS03</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>select day</t>
-  </si>
-  <si>
     <t>TS05</t>
   </si>
   <si>
@@ -179,36 +169,18 @@
     <t>TS07</t>
   </si>
   <si>
-    <t>select_number</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
-    <t>select month</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>repassword</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>mobileno</t>
-  </si>
-  <si>
-    <t>contbutton</t>
-  </si>
-  <si>
     <t>TS08</t>
   </si>
   <si>
@@ -230,27 +202,9 @@
     <t>TS14</t>
   </si>
   <si>
-    <t>re password</t>
-  </si>
-  <si>
-    <t>mobile no</t>
-  </si>
-  <si>
-    <t>continue button</t>
-  </si>
-  <si>
     <t>TS15</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>select year</t>
-  </si>
-  <si>
-    <t>input_number</t>
-  </si>
-  <si>
     <t>TS16</t>
   </si>
   <si>
@@ -260,27 +214,6 @@
     <t>TS18</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>createaccount</t>
-  </si>
-  <si>
     <t>TS19</t>
   </si>
   <si>
@@ -588,13 +521,262 @@
   </si>
   <si>
     <t xml:space="preserve">verifying video post </t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>Select a security question</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>termsandcondition</t>
+  </si>
+  <si>
+    <t>Click on terms and condition</t>
+  </si>
+  <si>
+    <t>Click on register button</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Make P capital, Please enter this field</t>
+  </si>
+  <si>
+    <t>Clicking on Login without any data in fields</t>
+  </si>
+  <si>
+    <t>Wrong Username and Password</t>
+  </si>
+  <si>
+    <t>Please check  your username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look and feel like login page </t>
+  </si>
+  <si>
+    <t>Msg is fine</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>6 to 18 charactors in brackets</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>One word only</t>
+  </si>
+  <si>
+    <t>6 to 18 charactors in brackets (italics if can be done)</t>
+  </si>
+  <si>
+    <t>please enter a valid username of 6 to 18 charactors</t>
+  </si>
+  <si>
+    <t>please enter a valid password of 6 to 18 charactors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this username is not available </t>
+  </si>
+  <si>
+    <t>Confirm password instead of password again</t>
+  </si>
+  <si>
+    <t>security question</t>
+  </si>
+  <si>
+    <t>please pick a question</t>
+  </si>
+  <si>
+    <t>please provide a one word answer to the security question</t>
+  </si>
+  <si>
+    <t>Terms of service</t>
+  </si>
+  <si>
+    <t>Remove the first sentence</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please select a gender </t>
+  </si>
+  <si>
+    <t>enter a dob</t>
+  </si>
+  <si>
+    <t>please select your qualification</t>
+  </si>
+  <si>
+    <t>please select state</t>
+  </si>
+  <si>
+    <t>select conti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newsfeed region preferences </t>
+  </si>
+  <si>
+    <t>newsfeedstate</t>
+  </si>
+  <si>
+    <t>please select newsfeed ministry preferences</t>
+  </si>
+  <si>
+    <t>please select newsfeed language preferences</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have entered an incorrect password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your new password could not be confirmed </t>
+  </si>
+  <si>
+    <t>Your password has been changed successfully</t>
+  </si>
+  <si>
+    <t>Hi Ankit please answer the security question below to reset your password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your answer did not match our records.Please try again </t>
+  </si>
+  <si>
+    <t>Hi Ankit,Please enter your new password</t>
+  </si>
+  <si>
+    <t>You do not have any bookmarks</t>
+  </si>
+  <si>
+    <t>There are no posts that meet your newsfeed preferences</t>
+  </si>
+  <si>
+    <t>No Questions have been answered yet - national pulse</t>
+  </si>
+  <si>
+    <t>Select a Gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>answer1</t>
+  </si>
+  <si>
+    <t>pickExpDate</t>
+  </si>
+  <si>
+    <t>Picking the date of birth</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Picking the qualification</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Picking state</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Picking parliament</t>
+  </si>
+  <si>
+    <t>parliament</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>Picking assembly</t>
+  </si>
+  <si>
+    <t>Select Region</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>punjab</t>
+  </si>
+  <si>
+    <t>Select Ministry</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>Select language</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>postwindow</t>
+  </si>
+  <si>
+    <t>Openpostwindow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +787,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -664,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -672,6 +862,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +1170,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,68 +1192,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1104,36 +1298,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,13 +1335,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1368,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1194,16 +1388,454 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="93.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1269,16 +1901,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="31" customWidth="1" collapsed="1"/>
@@ -1306,30 +1938,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,400 +1969,354 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +2328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1775,36 +2363,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,13 +2400,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1868,47 +2456,47 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,58 +2504,58 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1991,10 +2579,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2010,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,7 +2606,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2026,95 +2614,95 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,36 +2791,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2240,13 +2828,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -2306,16 +2894,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2323,64 +2911,64 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2981,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,148 +3015,148 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -2579,287 +3167,287 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
